--- a/docs/hour-tables/Kevin McAllister Hours Table (Incomplete).xlsx
+++ b/docs/hour-tables/Kevin McAllister Hours Table (Incomplete).xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A3:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -589,7 +589,7 @@
     <row r="20" spans="1:3">
       <c r="C20">
         <f>SUM(C6:C19)</f>
-        <v>32.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
